--- a/src/main/resources/template/goods.xlsx
+++ b/src/main/resources/template/goods.xlsx
@@ -115,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -253,18 +253,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,6 +275,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,16 +594,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="20" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="16" customWidth="1"/>
     <col min="6" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
@@ -612,16 +612,16 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5"/>
@@ -845,16 +845,16 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6"/>
@@ -1075,18 +1075,18 @@
       <c r="HM2" s="6"/>
     </row>
     <row r="3" spans="1:221" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:221" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
